--- a/数据.xlsx
+++ b/数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j2152\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Penz\Desktop\kmeans\K-means\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4DF09D7-F87C-45AC-A774-965AB7E04994}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6D45E3-87A0-4539-97EE-AED166CA4814}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{6822287A-C38C-4AB3-8006-BCC9AB29AF2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6822287A-C38C-4AB3-8006-BCC9AB29AF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,17 +452,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46BB9C3-CA07-48EF-9C50-DA0126A3C55E}">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection sqref="A1:AN16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="11.33203125" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -950,7 +950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2412,26 +2412,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="8:40" x14ac:dyDescent="0.3">
-      <c r="H17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AN17" s="1"/>
+    <row r="17" spans="7:40" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17" s="1">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17" s="1">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>9</v>
+      </c>
+      <c r="N17" s="1">
+        <v>9</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>11</v>
+      </c>
+      <c r="R17" s="1">
+        <v>11</v>
+      </c>
+      <c r="S17">
+        <v>12</v>
+      </c>
+      <c r="T17" s="1">
+        <v>12</v>
+      </c>
+      <c r="U17">
+        <v>13</v>
+      </c>
+      <c r="V17" s="1">
+        <v>13</v>
+      </c>
+      <c r="W17">
+        <v>14</v>
+      </c>
+      <c r="X17" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y17">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>15</v>
+      </c>
+      <c r="AA17">
+        <v>16</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>16</v>
+      </c>
+      <c r="AC17">
+        <v>17</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>17</v>
+      </c>
+      <c r="AE17">
+        <v>188</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>18</v>
+      </c>
+      <c r="AG17">
+        <v>19</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>19</v>
+      </c>
+      <c r="AI17">
+        <v>20</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>20</v>
+      </c>
+      <c r="AK17">
+        <v>21</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>21</v>
+      </c>
+      <c r="AM17">
+        <v>22</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="18" spans="8:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:40" x14ac:dyDescent="0.25">
       <c r="H18" s="1"/>
       <c r="J18" s="1"/>
       <c r="L18" s="1"/>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Penz\Desktop\kmeans\K-means\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6D45E3-87A0-4539-97EE-AED166CA4814}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4991A6-3296-4729-8226-3442E84665FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6822287A-C38C-4AB3-8006-BCC9AB29AF2B}"/>
+    <workbookView xWindow="12" yWindow="3456" windowWidth="17292" windowHeight="10224" xr2:uid="{6822287A-C38C-4AB3-8006-BCC9AB29AF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46BB9C3-CA07-48EF-9C50-DA0126A3C55E}">
-  <dimension ref="A1:AN18"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Z2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S1:V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1624,9 @@
       <c r="U10">
         <v>0</v>
       </c>
-      <c r="V10" s="1"/>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
       <c r="W10">
         <v>0</v>
       </c>
@@ -2416,127 +2418,75 @@
       <c r="G17">
         <v>6</v>
       </c>
-      <c r="H17" s="1">
-        <v>6</v>
-      </c>
+      <c r="H17" s="1"/>
       <c r="I17">
         <v>7</v>
       </c>
-      <c r="J17" s="1">
-        <v>7</v>
-      </c>
+      <c r="J17" s="1"/>
       <c r="K17">
         <v>8</v>
       </c>
-      <c r="L17" s="1">
-        <v>8</v>
-      </c>
+      <c r="L17" s="1"/>
       <c r="M17">
         <v>9</v>
       </c>
-      <c r="N17" s="1">
-        <v>9</v>
-      </c>
+      <c r="N17" s="1"/>
       <c r="O17">
         <v>10</v>
       </c>
-      <c r="P17" s="1">
-        <v>10</v>
-      </c>
+      <c r="P17" s="1"/>
       <c r="Q17">
         <v>11</v>
       </c>
-      <c r="R17" s="1">
-        <v>11</v>
-      </c>
+      <c r="R17" s="1"/>
       <c r="S17">
         <v>12</v>
       </c>
-      <c r="T17" s="1">
-        <v>12</v>
-      </c>
+      <c r="T17" s="1"/>
       <c r="U17">
         <v>13</v>
       </c>
-      <c r="V17" s="1">
-        <v>13</v>
-      </c>
+      <c r="V17" s="1"/>
       <c r="W17">
         <v>14</v>
       </c>
-      <c r="X17" s="1">
-        <v>14</v>
-      </c>
+      <c r="X17" s="1"/>
       <c r="Y17">
         <v>15</v>
       </c>
-      <c r="Z17" s="1">
-        <v>15</v>
-      </c>
+      <c r="Z17" s="1"/>
       <c r="AA17">
         <v>16</v>
       </c>
-      <c r="AB17" s="1">
-        <v>16</v>
-      </c>
+      <c r="AB17" s="1"/>
       <c r="AC17">
         <v>17</v>
       </c>
-      <c r="AD17" s="1">
-        <v>17</v>
-      </c>
+      <c r="AD17" s="1"/>
       <c r="AE17">
-        <v>188</v>
-      </c>
-      <c r="AF17" s="1">
         <v>18</v>
       </c>
+      <c r="AF17" s="1"/>
       <c r="AG17">
         <v>19</v>
       </c>
-      <c r="AH17" s="1">
-        <v>19</v>
-      </c>
+      <c r="AH17" s="1"/>
       <c r="AI17">
         <v>20</v>
       </c>
-      <c r="AJ17" s="1">
-        <v>20</v>
-      </c>
+      <c r="AJ17" s="1"/>
       <c r="AK17">
         <v>21</v>
       </c>
-      <c r="AL17" s="1">
-        <v>21</v>
-      </c>
+      <c r="AL17" s="1"/>
       <c r="AM17">
         <v>22</v>
       </c>
-      <c r="AN17" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="7:40" x14ac:dyDescent="0.25">
-      <c r="H18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AN18" s="1"/>
+      <c r="AN17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>